--- a/기획/Data/RandomItem.xlsx
+++ b/기획/Data/RandomItem.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\DefenceResource\기획\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5AE2AD-E61C-44B4-8F0F-09353A95F6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D4AC78-C688-4041-BA9C-41810EB605BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +100,50 @@
   </si>
   <si>
     <t>현금5000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비행기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피라냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리벤저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숍위드카멜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기동력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +189,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -201,6 +252,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -519,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -641,4 +695,74 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489F87AC-399B-4260-9ECC-3E2CF081D25F}">
+  <dimension ref="B2:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>